--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372250.692698865</v>
+        <v>376433.9026814052</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462387</v>
+        <v>3854815.050462393</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330057</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7704328.842699515</v>
+        <v>7704328.842699517</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>89.24460222479469</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.3022049098559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>118.859219748854</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -789,7 +791,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830814</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>316.5487336740566</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>28.90581645994576</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +986,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>123.1874880556993</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.7842945418048</v>
+        <v>309.6248060311342</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1196,10 +1198,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1214,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>149.1476881355085</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.1713099644714</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>168.6545639842427</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -1467,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091628</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>57.87860001854907</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>124.0003729781236</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -1664,16 +1666,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>130.2073136987925</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
         <v>133.5813703291298</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>304.007403971462</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>161.4085122120592</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1925,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>149.1476881355085</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>125.6476561767118</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2062,13 +2064,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>308.1365026696108</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>328.9830503186608</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.6661862967996</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>179.5986425369187</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>300.7253484649557</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>316.2932029478613</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>55.99100827250076</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,19 +2557,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>309.2953166467757</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>333.2427104208479</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>87.9530874907083</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>304.007403971462</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2801,10 +2803,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>361.9851830779834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.311770682243499</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>25.35996799970696</v>
       </c>
       <c r="E32" t="n">
-        <v>376.2903737217625</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>54.07546405781813</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>118.9046835062789</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3281,7 +3283,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>10.40787755764077</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>16.32894768194248</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>159.3149947016333</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>305.6096491809507</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>81.22016485003766</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.52529077486058</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>105.9969310815607</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>250.0657392763828</v>
+        <v>332.777064249998</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3837,7 +3839,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>53.0363847091458</v>
+        <v>45.12135515693642</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -4040,10 +4042,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>247.4392381220094</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.8548920239021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>53.0363847091458</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010083</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1173.731587788408</v>
+        <v>1377.429472801477</v>
       </c>
       <c r="C2" t="n">
-        <v>1173.731587788408</v>
+        <v>984.2539713044079</v>
       </c>
       <c r="D2" t="n">
-        <v>788.2904590050753</v>
+        <v>598.8128425210756</v>
       </c>
       <c r="E2" t="n">
-        <v>788.2904590050753</v>
+        <v>598.8128425210756</v>
       </c>
       <c r="F2" t="n">
-        <v>371.396020535053</v>
+        <v>598.8128425210756</v>
       </c>
       <c r="G2" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1049.610128415868</v>
+        <v>1212.95206040644</v>
       </c>
       <c r="N2" t="n">
-        <v>1577.42141205333</v>
+        <v>1740.763344043902</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T2" t="n">
-        <v>2199.134950018231</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="U2" t="n">
-        <v>2199.134950018231</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="V2" t="n">
-        <v>2199.134950018231</v>
+        <v>1857.028140721749</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.135914986518</v>
+        <v>1857.028140721749</v>
       </c>
       <c r="X2" t="n">
-        <v>1438.683309919575</v>
+        <v>1467.575535654805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.731587788408</v>
+        <v>1467.575535654805</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G3" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
         <v>160.427952321271</v>
@@ -4413,28 +4415,28 @@
         <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>623.6437572083089</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1814.990048232788</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>2331.510330823769</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
         <v>2029.816973074021</v>
@@ -4449,10 +4451,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D4" t="n">
-        <v>793.1268795456108</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E4" t="n">
-        <v>637.5680674048133</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F4" t="n">
-        <v>480.2421326177862</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G4" t="n">
-        <v>311.9880787172318</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H4" t="n">
-        <v>156.5095276787258</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1965.153759365783</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C5" t="n">
-        <v>1571.978257868714</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="D5" t="n">
-        <v>1186.537129085382</v>
+        <v>400.5938149390386</v>
       </c>
       <c r="E5" t="n">
-        <v>783.9536042019261</v>
+        <v>400.5938149390386</v>
       </c>
       <c r="F5" t="n">
-        <v>367.0591657319038</v>
+        <v>400.5938149390386</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>400.5938149390386</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>76.51076450552921</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>358.4764287842802</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>851.7967205028091</v>
+        <v>685.2830347289005</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.79762054739</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.64850507718</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.64850507718</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F6" t="n">
         <v>305.0574584171666</v>
@@ -4638,34 +4640,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834974</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M6" t="n">
-        <v>1549.231189288413</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N6" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>2134.729194295015</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
         <v>2341.731461975244</v>
@@ -4686,10 +4688,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="7">
@@ -4720,16 +4722,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.31297010154361</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154361</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154361</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154361</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>1885.656118784443</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2233.843610915965</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>1719.881618012246</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>1377.774808715765</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W8" t="n">
-        <v>1006.775773684052</v>
+        <v>1652.542660748985</v>
       </c>
       <c r="X8" t="n">
-        <v>617.323168617109</v>
+        <v>1652.542660748985</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.8324595377101</v>
+        <v>1652.542660748985</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C9" t="n">
         <v>696.0247228016668</v>
@@ -4875,34 +4877,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>745.9259573278729</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
         <v>2341.731461975244</v>
@@ -4923,10 +4925,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.31297010154361</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.265390756362</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M11" t="n">
-        <v>1397.79762054739</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.608904184852</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>1920.147110703377</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2268.334602834899</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>1937.641433863169</v>
+        <v>2195.29035963855</v>
       </c>
       <c r="U11" t="n">
-        <v>1681.888704297768</v>
+        <v>1939.537630073149</v>
       </c>
       <c r="V11" t="n">
-        <v>1339.781895001287</v>
+        <v>1597.430820776668</v>
       </c>
       <c r="W11" t="n">
-        <v>968.782859969574</v>
+        <v>1226.431785744955</v>
       </c>
       <c r="X11" t="n">
-        <v>579.3302549026308</v>
+        <v>836.979180678012</v>
       </c>
       <c r="Y11" t="n">
-        <v>182.839545823232</v>
+        <v>440.488471598613</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
         <v>160.427952321271</v>
@@ -5127,43 +5129,43 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1443.506853769802</v>
+        <v>1545.785408515687</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>306.3595905514212</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C13" t="n">
-        <v>136.1544726174104</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D13" t="n">
-        <v>77.69124027544166</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E13" t="n">
-        <v>77.69124027544166</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F13" t="n">
-        <v>77.69124027544166</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G13" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H13" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5239,10 +5241,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X13" t="n">
-        <v>714.6796704260792</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y13" t="n">
-        <v>491.5676092427225</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1719.881618012246</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C14" t="n">
-        <v>1326.706116515177</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D14" t="n">
-        <v>1326.706116515177</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E14" t="n">
-        <v>1326.706116515177</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F14" t="n">
-        <v>909.8116780451545</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G14" t="n">
-        <v>496.6489225331576</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>172.5658720996483</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L14" t="n">
-        <v>540.6332618200724</v>
+        <v>685.2830347289005</v>
       </c>
       <c r="M14" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N14" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O14" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S14" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T14" t="n">
-        <v>1975.634347577648</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U14" t="n">
-        <v>1719.881618012246</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V14" t="n">
-        <v>1719.881618012246</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W14" t="n">
-        <v>1719.881618012246</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X14" t="n">
-        <v>1719.881618012246</v>
+        <v>579.3302549026299</v>
       </c>
       <c r="Y14" t="n">
-        <v>1719.881618012246</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834974</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>1549.231189288413</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N15" t="n">
-        <v>2134.729194295015</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O15" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
         <v>2341.731461975244</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D16" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.31297010154361</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
         <v>406.2953261290054</v>
@@ -5522,43 +5524,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2202.609603852878</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>1946.856874287477</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>1604.750064990995</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>1233.751029959283</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>844.2984248923394</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
-        <v>447.8077158129405</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J18" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K18" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L18" t="n">
-        <v>643.9940382195844</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.141762214911</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5701,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>821.8431682221751</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>536.404376464076</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6228038740554</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1956.65655633099</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C20" t="n">
-        <v>1563.48105483392</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D20" t="n">
-        <v>1178.039926050588</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E20" t="n">
-        <v>775.4564011671323</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F20" t="n">
-        <v>358.5619626971101</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
         <v>406.2953261290054</v>
@@ -5765,37 +5767,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>1973.427801529577</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P20" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U20" t="n">
-        <v>2327.655591362702</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V20" t="n">
-        <v>2327.655591362702</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W20" t="n">
-        <v>1956.65655633099</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X20" t="n">
-        <v>1956.65655633099</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="Y20" t="n">
-        <v>1956.65655633099</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>272.5108437565964</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631986</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1634.406600469638</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.201482535628</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.201482535628</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535628</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535628</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535628</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535628</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535628</v>
+        <v>1494.579752709525</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535628</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645569</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519369</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857633</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888842</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.350142930551</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707129</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R22" t="n">
-        <v>2241.747515709757</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S22" t="n">
-        <v>2038.931431892307</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="T22" t="n">
-        <v>1857.518661652995</v>
+        <v>2162.832421259729</v>
       </c>
       <c r="U22" t="n">
-        <v>1857.518661652995</v>
+        <v>1877.393629501629</v>
       </c>
       <c r="V22" t="n">
-        <v>1857.518661652995</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="W22" t="n">
-        <v>1857.518661652995</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="X22" t="n">
-        <v>1857.518661652995</v>
+        <v>1611.414284322454</v>
       </c>
       <c r="Y22" t="n">
-        <v>1634.406600469638</v>
+        <v>1611.414284322454</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1566.907089285477</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="C23" t="n">
-        <v>1173.731587788408</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D23" t="n">
-        <v>788.2904590050753</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E23" t="n">
-        <v>788.2904590050753</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F23" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G23" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K23" t="n">
-        <v>47.31297010154361</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="L23" t="n">
-        <v>318.7636682303387</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M23" t="n">
-        <v>864.7645682749193</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N23" t="n">
-        <v>1392.575851912381</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O23" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P23" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T23" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U23" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V23" t="n">
-        <v>1566.907089285477</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W23" t="n">
-        <v>1566.907089285477</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X23" t="n">
-        <v>1566.907089285477</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.907089285477</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6062,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L24" t="n">
         <v>530.8790559998569</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N24" t="n">
         <v>1443.506853769801</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C25" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D25" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E25" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F25" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G25" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6181,16 +6183,16 @@
         <v>427.6021490532311</v>
       </c>
       <c r="V25" t="n">
-        <v>427.6021490532311</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W25" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X25" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y25" t="n">
-        <v>427.6021490532311</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1179.210445219441</v>
+        <v>1575.701154298839</v>
       </c>
       <c r="C26" t="n">
-        <v>866.7909334550213</v>
+        <v>1182.52565280177</v>
       </c>
       <c r="D26" t="n">
-        <v>866.7909334550213</v>
+        <v>797.0845240184374</v>
       </c>
       <c r="E26" t="n">
-        <v>464.2074085715658</v>
+        <v>797.0845240184374</v>
       </c>
       <c r="F26" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J26" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K26" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L26" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M26" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N26" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X26" t="n">
-        <v>1976.195900010237</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y26" t="n">
-        <v>1579.705190930838</v>
+        <v>1976.195900010236</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K27" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L27" t="n">
-        <v>530.879055999857</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.377061006459</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1634.406600469638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C28" t="n">
-        <v>1464.201482535628</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D28" t="n">
-        <v>1464.201482535628</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E28" t="n">
-        <v>1464.201482535628</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.201482535628</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.201482535628</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W28" t="n">
-        <v>2276.807002561313</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X28" t="n">
-        <v>2042.726680344296</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y28" t="n">
-        <v>1819.61461916094</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1228.513125265401</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C29" t="n">
-        <v>835.3376237683314</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D29" t="n">
-        <v>449.8964949849991</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L29" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M29" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N29" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O29" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W29" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X29" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y29" t="n">
-        <v>1629.007870976798</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="30">
@@ -6516,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F30" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="L30" t="n">
-        <v>47.31297010154367</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M30" t="n">
-        <v>623.6437572083089</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6585,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C31" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D31" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6649,22 +6651,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4295905742738</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X31" t="n">
-        <v>431.3492683572568</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.2372071739002</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1719.881618012246</v>
+        <v>466.1046008912463</v>
       </c>
       <c r="C32" t="n">
-        <v>1719.881618012246</v>
+        <v>72.92909939417689</v>
       </c>
       <c r="D32" t="n">
-        <v>1719.881618012246</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E32" t="n">
-        <v>1339.790331424607</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F32" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G32" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H32" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>540.6332618200724</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1086.634161864653</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.445445502115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S32" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T32" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U32" t="n">
-        <v>1719.881618012246</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V32" t="n">
-        <v>1719.881618012246</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W32" t="n">
-        <v>1719.881618012246</v>
+        <v>1652.542660748985</v>
       </c>
       <c r="X32" t="n">
-        <v>1719.881618012246</v>
+        <v>1263.090055682042</v>
       </c>
       <c r="Y32" t="n">
-        <v>1719.881618012246</v>
+        <v>866.5993466026432</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K33" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L33" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1436.116207068686</v>
+        <v>1545.785408515687</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X33" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1634.406600469638</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.201482535628</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.201482535628</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.201482535628</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535628</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2245.542764161747</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>2042.726680344296</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T34" t="n">
-        <v>2042.726680344296</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U34" t="n">
-        <v>2042.726680344296</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="V34" t="n">
-        <v>2042.726680344296</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="W34" t="n">
-        <v>2042.726680344296</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="X34" t="n">
-        <v>2042.726680344296</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="Y34" t="n">
-        <v>1819.61461916094</v>
+        <v>589.1399514439072</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1604.036739400527</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="C35" t="n">
-        <v>1604.036739400527</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D35" t="n">
-        <v>1604.036739400527</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F35" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G35" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M35" t="n">
-        <v>1212.952060406441</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>1740.763344043903</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="O35" t="n">
-        <v>2180.802944936232</v>
+        <v>2030.305891693271</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R35" t="n">
-        <v>2327.655591362702</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S35" t="n">
-        <v>2317.142583728722</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T35" t="n">
-        <v>2317.142583728722</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U35" t="n">
-        <v>2317.142583728722</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V35" t="n">
-        <v>1975.03577443224</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="W35" t="n">
-        <v>1604.036739400527</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="X35" t="n">
-        <v>1604.036739400527</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="Y35" t="n">
-        <v>1604.036739400527</v>
+        <v>1665.394817750351</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F36" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M36" t="n">
-        <v>1436.116207068686</v>
+        <v>1229.492043226186</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535627</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645568</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519368</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857632</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888841</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.35014293055</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707128</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R37" t="n">
-        <v>824.8590032756731</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S37" t="n">
-        <v>622.0429194582225</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T37" t="n">
-        <v>386.3238676264566</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U37" t="n">
-        <v>100.8850758683575</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V37" t="n">
-        <v>47.31297010154361</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>2082.318103008357</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>1848.23778079134</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>1625.125719607983</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1568.663050286385</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C38" t="n">
-        <v>1175.487548789315</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D38" t="n">
-        <v>1175.487548789315</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E38" t="n">
-        <v>772.9040239058595</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F38" t="n">
-        <v>356.0095854358373</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M38" t="n">
-        <v>899.6156178475343</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N38" t="n">
-        <v>1392.575851912381</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>2283.607934521586</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1941.501125225104</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>1570.502090193392</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.64850507718</v>
+        <v>1181.049485126449</v>
       </c>
       <c r="Y38" t="n">
-        <v>1969.157795997781</v>
+        <v>784.5587760470498</v>
       </c>
     </row>
     <row r="39">
@@ -7245,16 +7247,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L39" t="n">
         <v>530.8790559998569</v>
@@ -7263,10 +7265,10 @@
         <v>1116.377061006459</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P39" t="n">
         <v>2365.648505077179</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>854.2900019614187</v>
+        <v>371.045575040604</v>
       </c>
       <c r="C40" t="n">
-        <v>684.084884027408</v>
+        <v>371.045575040604</v>
       </c>
       <c r="D40" t="n">
-        <v>528.4517709299226</v>
+        <v>371.045575040604</v>
       </c>
       <c r="E40" t="n">
-        <v>372.8929587891251</v>
+        <v>371.045575040604</v>
       </c>
       <c r="F40" t="n">
-        <v>215.5670240020981</v>
+        <v>371.045575040604</v>
       </c>
       <c r="G40" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7360,22 +7362,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>841.6923854900044</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>556.2535937319053</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>556.2535937319053</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>556.2535937319053</v>
       </c>
       <c r="X40" t="n">
-        <v>948.7599926430961</v>
+        <v>556.2535937319053</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.7599926430961</v>
+        <v>556.2535937319053</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1568.663050286385</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C41" t="n">
-        <v>1175.487548789315</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="D41" t="n">
-        <v>1175.487548789315</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="E41" t="n">
-        <v>1175.487548789315</v>
+        <v>383.4514188389153</v>
       </c>
       <c r="F41" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G41" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H41" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K41" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L41" t="n">
-        <v>685.2830347289006</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M41" t="n">
-        <v>1231.283934773481</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O41" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y41" t="n">
-        <v>1969.157795997781</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J42" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K42" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L42" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M42" t="n">
-        <v>1545.785408515688</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N42" t="n">
-        <v>2131.28341352229</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O42" t="n">
-        <v>2131.28341352229</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.31297010154361</v>
+        <v>385.7721419361088</v>
       </c>
       <c r="C43" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="D43" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="E43" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="F43" t="n">
-        <v>47.31297010154361</v>
+        <v>215.567024002098</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V43" t="n">
-        <v>47.31297010154361</v>
+        <v>903.1828662219482</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154361</v>
+        <v>619.8524641531258</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154361</v>
+        <v>385.7721419361088</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.31297010154361</v>
+        <v>385.7721419361088</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>371.396020535053</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="C44" t="n">
-        <v>371.396020535053</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D44" t="n">
         <v>371.396020535053</v>
@@ -7640,58 +7642,58 @@
         <v>371.396020535053</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K44" t="n">
-        <v>318.7636682303387</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>1392.575851912381</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="O44" t="n">
-        <v>1832.61545280471</v>
+        <v>1885.656118784443</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S44" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T44" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U44" t="n">
-        <v>1681.888704297768</v>
+        <v>1719.881618012245</v>
       </c>
       <c r="V44" t="n">
-        <v>1339.781895001287</v>
+        <v>1377.774808715764</v>
       </c>
       <c r="W44" t="n">
-        <v>968.782859969574</v>
+        <v>1006.775773684051</v>
       </c>
       <c r="X44" t="n">
-        <v>579.3302549026308</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="Y44" t="n">
-        <v>371.396020535053</v>
+        <v>756.8371493183852</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L45" t="n">
-        <v>678.132212472995</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="M45" t="n">
-        <v>1263.630217479597</v>
+        <v>632.8109751081455</v>
       </c>
       <c r="N45" t="n">
-        <v>1849.128222486199</v>
+        <v>1218.308980114748</v>
       </c>
       <c r="O45" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7828,28 +7830,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>47.31297010154361</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>320.1156270018461</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7994,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,22 +8063,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>557.9550992680677</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>121.5663691156888</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,7 +8218,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>311.2540453751045</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8225,13 +8227,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>498.7523067719738</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>560.2818744604607</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>320.3351938922088</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>331.0195299270391</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>277.6349551468913</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8534,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>124.0799396297078</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>553.2668652653155</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>506.8283140129063</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8705,10 +8707,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>242.7955693701908</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8775,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>577.0069902189997</v>
+        <v>680.3186616794898</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>143.0584031792374</v>
@@ -8933,7 +8935,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270383</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8942,10 +8944,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>186.088840441687</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9170,16 +9172,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>301.2346582324079</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9240,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
@@ -9249,13 +9251,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>663.2434089132782</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>116.7148101947783</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P20" t="n">
-        <v>359.7712890658291</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,16 +9482,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>317.5329465084867</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9638,10 +9640,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>417.2510275517567</v>
       </c>
       <c r="L23" t="n">
-        <v>427.440794103012</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9723,10 +9725,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536977</v>
       </c>
       <c r="N24" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9887,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9960,10 +9962,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>683.7992483186069</v>
+        <v>186.088840441687</v>
       </c>
       <c r="N27" t="n">
-        <v>179.0738312465423</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L29" t="n">
-        <v>251.5450406822918</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10124,10 +10126,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339695</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10194,13 +10196,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>674.5394322581657</v>
+        <v>186.088840441687</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10349,7 +10351,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
         <v>651.5514946987026</v>
@@ -10361,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>369.9375821741921</v>
+        <v>194.041828753471</v>
       </c>
       <c r="P32" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10425,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>680.3186616794898</v>
       </c>
       <c r="N33" t="n">
-        <v>92.83741255226374</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
@@ -10592,19 +10594,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>466.2265087279361</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>489.0313597499232</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>301.5486891608481</v>
       </c>
       <c r="O36" t="n">
-        <v>385.1581020577846</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M38" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>647.0581217063165</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>359.5215849845337</v>
       </c>
       <c r="P38" t="n">
         <v>502.0059847475129</v>
@@ -10908,16 +10910,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N39" t="n">
-        <v>415.8062469585524</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K41" t="n">
         <v>143.0584031792374</v>
@@ -11069,13 +11071,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N41" t="n">
-        <v>312.0396197609155</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>277.8952841518213</v>
       </c>
       <c r="Q41" t="n">
         <v>331.2113854294513</v>
@@ -11136,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,16 +11147,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>680.3186616794904</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>271.1401458256686</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>448.4295544649528</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
@@ -11376,25 +11378,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>404.2826663611858</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>605.1654020112564</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>307.2451960294882</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>130.223597078749</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>23.65888910788253</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22790,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>92.48239428282028</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>108.0479292785141</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22847,10 +22849,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.7055037124781</v>
+        <v>86.8649922231487</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -23030,16 +23032,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.3184882898115</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23303,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>52.6110324319348</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>96.19818194796133</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23504,16 +23506,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>12.95337276033619</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>262.3184882898124</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>92.48239428282091</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23783,22 +23785,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>59.85708420411831</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23941,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>107.7142051367364</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>100.8946252872661</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24014,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>63.54275166994404</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24145,10 +24147,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>131.7634811092929</v>
+        <v>16.09729481249326</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>53.7632187765295</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24193,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>95.76444978932716</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24257,13 +24259,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>22.39253825565544</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24272,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24373,13 +24375,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>99.76166716665601</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
         <v>131.7634811092929</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24443,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>79.948429835323</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>79.48278366447408</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>192.5440105574258</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>92.48239428282091</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
@@ -24740,13 +24742,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>30.5406189106215</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>178.0441678221448</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24844,7 +24846,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24889,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>356.226749495792</v>
       </c>
       <c r="E32" t="n">
-        <v>22.26731591285835</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25084,19 +25086,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>101.6772113813387</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.757295967469929</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -25141,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.4405419507192</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>322.3567935215743</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>24.04094380275501</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>103.4214787759261</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25445,16 +25447,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>171.9750374197097</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.83064772952768</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25600,10 +25602,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>127.3649302318875</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25634,19 +25636,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>162.6597548089392</v>
+        <v>79.94842983532402</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25798,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>210.2831670182382</v>
+        <v>218.1981965704476</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25868,7 +25870,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>138.1188408942643</v>
       </c>
       <c r="Y44" t="n">
-        <v>186.6709099647028</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666284.4362809818</v>
+        <v>666284.436280982</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>666284.4362809818</v>
+        <v>666284.436280982</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666284.4362809816</v>
+        <v>666284.4362809815</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666284.4362809815</v>
+        <v>666284.436280982</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666284.4362809822</v>
+        <v>666284.4362809819</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666284.4362809816</v>
+        <v>666284.4362809818</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666284.4362809818</v>
+        <v>666284.4362809819</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666284.4362809815</v>
+        <v>666284.4362809812</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666284.436280982</v>
+        <v>666284.4362809819</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666284.4362809813</v>
+        <v>666284.4362809818</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666284.436280982</v>
+        <v>666284.4362809819</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666284.4362809812</v>
+        <v>666284.4362809818</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666284.436280982</v>
+        <v>666284.4362809816</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666284.436280982</v>
+        <v>666284.4362809822</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124222.5220184881</v>
+        <v>124222.522018488</v>
       </c>
       <c r="C2" t="n">
         <v>124222.5220184881</v>
@@ -26329,7 +26331,7 @@
         <v>124222.5220184881</v>
       </c>
       <c r="H2" t="n">
-        <v>124222.5220184881</v>
+        <v>124222.522018488</v>
       </c>
       <c r="I2" t="n">
         <v>124222.522018488</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394314</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="H4" t="n">
         <v>461.3207027394316</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394315</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3207027394317</v>
+        <v>461.3207027394315</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144020.0619531695</v>
+        <v>-144020.0619531694</v>
       </c>
       <c r="C6" t="n">
-        <v>54175.74403857552</v>
+        <v>54175.74403857553</v>
       </c>
       <c r="D6" t="n">
-        <v>54175.74403857552</v>
+        <v>54175.74403857553</v>
       </c>
       <c r="E6" t="n">
-        <v>87803.34403857552</v>
+        <v>87803.34403857551</v>
       </c>
       <c r="F6" t="n">
+        <v>87803.34403857551</v>
+      </c>
+      <c r="G6" t="n">
         <v>87803.34403857554</v>
       </c>
-      <c r="G6" t="n">
-        <v>87803.34403857552</v>
-      </c>
       <c r="H6" t="n">
-        <v>87803.34403857549</v>
+        <v>87803.34403857548</v>
       </c>
       <c r="I6" t="n">
-        <v>87803.34403857547</v>
+        <v>87803.34403857548</v>
       </c>
       <c r="J6" t="n">
-        <v>-66936.09032702789</v>
+        <v>-66936.09032702782</v>
       </c>
       <c r="K6" t="n">
         <v>87803.34403857554</v>
       </c>
       <c r="L6" t="n">
-        <v>87803.34403857552</v>
+        <v>87803.34403857551</v>
       </c>
       <c r="M6" t="n">
-        <v>87803.34403857549</v>
+        <v>87803.34403857557</v>
       </c>
       <c r="N6" t="n">
-        <v>87803.34403857549</v>
+        <v>87803.34403857551</v>
       </c>
       <c r="O6" t="n">
-        <v>87803.34403857552</v>
+        <v>87803.34403857551</v>
       </c>
       <c r="P6" t="n">
         <v>87803.34403857551</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34696,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>170.3905754041188</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34714,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>467.8947524111494</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>34.48300429637414</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>168.1956421958672</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34945,13 +34947,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>349.6338154341898</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>467.8947524111488</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>233.2518290728942</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>181.2944783293118</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>133.1362567284992</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>34.48300429637448</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>467.8947524111488</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>357.103262415179</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35425,10 +35427,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>98.29687095179861</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>484.6198681696878</v>
+        <v>587.9315396301779</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>181.294478329311</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35662,10 +35664,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>93.70171839237511</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,16 +35892,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>151.5096066346806</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>570.8562868639664</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>24.02725130588939</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P20" t="n">
-        <v>209.4698418249039</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>227.4725996515685</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="L23" t="n">
-        <v>274.1926243725203</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36443,10 +36445,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043858</v>
       </c>
       <c r="N24" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36607,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>591.4121262692951</v>
+        <v>93.70171839237511</v>
       </c>
       <c r="N27" t="n">
-        <v>93.70171839237568</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>98.29687095180005</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36844,10 +36846,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098731</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>582.1523102088538</v>
+        <v>93.70171839237511</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37081,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>220.3737447500957</v>
+        <v>44.47799132937455</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301779</v>
       </c>
       <c r="N33" t="n">
-        <v>7.465299698097082</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>362.6084404317796</v>
@@ -37312,19 +37314,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>316.5014571302088</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>338.729912508998</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>216.1765763066815</v>
       </c>
       <c r="O36" t="n">
-        <v>292.4705431688957</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>497.9396303685323</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>209.9577475604372</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37628,16 +37630,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N39" t="n">
-        <v>330.4341341043857</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
-        <v>162.9211284231314</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>127.5938369108961</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,16 +37867,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>587.9315396301786</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>128.0817426464313</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>298.1281072240276</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>314.2223195042676</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>512.4778431223675</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376433.9026814052</v>
+        <v>370725.7468735192</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462393</v>
+        <v>3854815.050462387</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7704328.842699517</v>
+        <v>7704328.842699518</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.24460222479469</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>54.38809717403962</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.859219748854</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -788,7 +788,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>133.5813703291307</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>306.2731465001122</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28.90581645994576</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>150.2783710965524</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -986,7 +986,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556993</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>135.3271637428111</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>309.6248060311342</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>134.1713099644714</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1198,10 +1198,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355085</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
         <v>128.7880777047345</v>
@@ -1232,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -1350,13 +1350,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>53.94193225927676</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>168.6545639842427</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67787267091628</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.8666172744861</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>284.4349683795856</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>130.2073136987925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.03638470914581</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.007403971462</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>50.42543431588494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355085</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
         <v>128.7880777047345</v>
@@ -1943,7 +1943,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>125.6476561767118</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>194.9632162960285</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>92.4365919440867</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -2143,13 +2143,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>328.9830503186608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.6661862967996</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -2301,7 +2301,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.7253484649557</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2335,7 +2335,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12.35758616116846</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2535,13 +2535,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>113.1667354347867</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>333.2427104208479</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>117.9429793885291</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>127.7349619690958</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>304.007403971462</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>56.76495115443745</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830814</v>
       </c>
       <c r="U30" t="n">
         <v>207.9625118881446</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>145.9951119230965</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>113.1667354347867</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>25.35996799970696</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>243.4678766012354</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3097,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3198,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>54.07546405781813</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>23.07869429521004</v>
       </c>
     </row>
     <row r="35">
@@ -3274,16 +3274,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>16.32894768194248</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>18.3663558755324</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.3149947016333</v>
+        <v>1.939976943874708</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>81.22016485003766</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3568,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>247.4392381220103</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I39" t="n">
         <v>48.89338144820752</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>105.9969310815607</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>226.5432490285658</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>332.777064249998</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>178.6874769548538</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>45.12135515693642</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>39.03885150049273</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>247.4392381220094</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4197,10 +4197,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010083</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1377.429472801477</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="C2" t="n">
-        <v>984.2539713044079</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="D2" t="n">
-        <v>598.8128425210756</v>
+        <v>921.7284053479907</v>
       </c>
       <c r="E2" t="n">
-        <v>598.8128425210756</v>
+        <v>519.1448804645352</v>
       </c>
       <c r="F2" t="n">
-        <v>598.8128425210756</v>
+        <v>102.2504419945129</v>
       </c>
       <c r="G2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1212.95206040644</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N2" t="n">
-        <v>1740.763344043902</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936231</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.13495001823</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>2199.13495001823</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>2199.13495001823</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V2" t="n">
-        <v>1857.028140721749</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W2" t="n">
-        <v>1857.028140721749</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X2" t="n">
-        <v>1467.575535654805</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467.575535654805</v>
+        <v>1707.66427984272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L3" t="n">
-        <v>643.9940382195842</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.492043226186</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N3" t="n">
-        <v>1814.990048232788</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>2331.510330823769</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
         <v>2206.800784875113</v>
@@ -4451,10 +4451,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154359</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1179.21044521944</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="C5" t="n">
-        <v>786.0349437223708</v>
+        <v>742.1209135314539</v>
       </c>
       <c r="D5" t="n">
-        <v>400.5938149390386</v>
+        <v>356.6797847481216</v>
       </c>
       <c r="E5" t="n">
-        <v>400.5938149390386</v>
+        <v>356.6797847481216</v>
       </c>
       <c r="F5" t="n">
-        <v>400.5938149390386</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>400.5938149390386</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>76.51076450552921</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K5" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L5" t="n">
-        <v>685.2830347289005</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M5" t="n">
-        <v>1231.283934773481</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.648505077179</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.195900010236</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.705190930837</v>
+        <v>1135.296415028523</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
         <v>305.0574584171666</v>
@@ -4640,58 +4640,58 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>623.6437572083082</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>354.2121928262727</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>184.0070748922619</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1339.790331424607</v>
+        <v>182.839545823232</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.790331424607</v>
+        <v>182.839545823232</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1445.616517892115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>1885.656118784443</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2233.843610915965</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780698</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.542660748985</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>1652.542660748985</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y8" t="n">
-        <v>1652.542660748985</v>
+        <v>182.839545823232</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278729</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154359</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154359</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>440.488471598613</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31297010154359</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>406.2953261290054</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>952.2962261735861</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1480.107509811048</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O11" t="n">
-        <v>1920.147110703377</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
-        <v>2268.334602834899</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2195.29035963855</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U11" t="n">
-        <v>1939.537630073149</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V11" t="n">
-        <v>1597.430820776668</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W11" t="n">
-        <v>1226.431785744955</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X11" t="n">
-        <v>836.979180678012</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y11" t="n">
-        <v>440.488471598613</v>
+        <v>1719.881618012246</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L12" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1545.785408515687</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N12" t="n">
-        <v>2131.283413522289</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O12" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P12" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>598.7311070388184</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>313.2923152807194</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.31297010154359</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="C14" t="n">
-        <v>47.31297010154359</v>
+        <v>1005.128050362556</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154359</v>
+        <v>1005.128050362556</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154359</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>685.2830347289005</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>1832.615452804709</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P14" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T14" t="n">
-        <v>1937.641433863168</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U14" t="n">
-        <v>1681.888704297767</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V14" t="n">
-        <v>1339.781895001286</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W14" t="n">
-        <v>968.7828599695731</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X14" t="n">
-        <v>579.3302549026299</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="Y14" t="n">
-        <v>447.8077158129405</v>
+        <v>1292.436099230825</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F15" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M15" t="n">
-        <v>623.6437572083082</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W15" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X15" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154359</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154359</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2058.57031924742</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>913.9940326342535</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>913.9940326342535</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>511.410507750798</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>511.410507750798</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>98.24775223880113</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>98.24775223880113</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.648505077179</v>
+        <v>1707.66427984272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825357</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5700,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T19" t="n">
-        <v>821.8431682221751</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U19" t="n">
-        <v>536.404376464076</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V19" t="n">
-        <v>270.4250312849002</v>
+        <v>244.2455118147037</v>
       </c>
       <c r="W19" t="n">
-        <v>270.4250312849002</v>
+        <v>244.2455118147037</v>
       </c>
       <c r="X19" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>440.488471598613</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="C20" t="n">
-        <v>47.31297010154359</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="D20" t="n">
-        <v>47.31297010154359</v>
+        <v>553.8460205065574</v>
       </c>
       <c r="E20" t="n">
-        <v>47.31297010154359</v>
+        <v>553.8460205065574</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636596</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>1886.395173071195</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V20" t="n">
-        <v>1544.288363774713</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W20" t="n">
-        <v>1173.289328743001</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X20" t="n">
-        <v>1173.289328743001</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y20" t="n">
-        <v>840.9832173100099</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.3129701015436</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6182020620834</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N21" t="n">
         <v>1209.14176221491</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>1494.579752709525</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>2162.832421259729</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>1877.393629501629</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V22" t="n">
-        <v>1611.414284322454</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>1611.414284322454</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1665.394817750351</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="C23" t="n">
-        <v>1665.394817750351</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="D23" t="n">
-        <v>1279.953688967018</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="E23" t="n">
-        <v>877.3701640835627</v>
+        <v>889.8525743473692</v>
       </c>
       <c r="F23" t="n">
-        <v>460.4757256135405</v>
+        <v>472.958135877347</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154359</v>
+        <v>59.79538036535013</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I23" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>318.7636682303378</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M23" t="n">
-        <v>864.7645682749184</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N23" t="n">
-        <v>1392.57585191238</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O23" t="n">
-        <v>1832.615452804709</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X23" t="n">
-        <v>2365.648505077179</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="Y23" t="n">
-        <v>1969.157795997781</v>
+        <v>1292.436099230825</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>858.0088487631988</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O24" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P24" t="n">
         <v>2365.648505077179</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
         <v>479.5672294235493</v>
@@ -6183,16 +6183,16 @@
         <v>427.6021490532311</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6228038740554</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W25" t="n">
-        <v>47.31297010154359</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="X25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1575.701154298839</v>
+        <v>968.782859969574</v>
       </c>
       <c r="C26" t="n">
-        <v>1182.52565280177</v>
+        <v>968.782859969574</v>
       </c>
       <c r="D26" t="n">
-        <v>797.0845240184374</v>
+        <v>583.3417311862418</v>
       </c>
       <c r="E26" t="n">
-        <v>797.0845240184374</v>
+        <v>583.3417311862418</v>
       </c>
       <c r="F26" t="n">
-        <v>460.4757256135405</v>
+        <v>166.4472927162195</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154359</v>
+        <v>166.4472927162195</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I26" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X26" t="n">
-        <v>1976.195900010236</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y26" t="n">
-        <v>1976.195900010236</v>
+        <v>968.782859969574</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>47.3129701015436</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>623.6437572083082</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.14176221491</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6350,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
         <v>479.5672294235493</v>
@@ -6417,19 +6417,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>819.7347785328983</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X28" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2058.57031924742</v>
+        <v>1447.90751364532</v>
       </c>
       <c r="C29" t="n">
-        <v>1665.394817750351</v>
+        <v>1390.569179145889</v>
       </c>
       <c r="D29" t="n">
-        <v>1279.953688967018</v>
+        <v>1005.128050362556</v>
       </c>
       <c r="E29" t="n">
-        <v>877.3701640835627</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F29" t="n">
-        <v>460.4757256135405</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L29" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M29" t="n">
-        <v>1590.266290800943</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N29" t="n">
-        <v>2118.077574438405</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O29" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="X29" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="Y29" t="n">
-        <v>2365.648505077179</v>
+        <v>1848.402259356717</v>
       </c>
     </row>
     <row r="30">
@@ -6536,40 +6536,40 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H30" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I30" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J30" t="n">
-        <v>47.3129701015436</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K30" t="n">
-        <v>47.3129701015436</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>623.6437572083082</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
         <v>2029.816973074021</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
         <v>479.5672294235493</v>
@@ -6648,25 +6648,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>948.7599926430961</v>
+        <v>801.2901826197663</v>
       </c>
       <c r="T31" t="n">
-        <v>713.0409408113302</v>
+        <v>801.2901826197663</v>
       </c>
       <c r="U31" t="n">
-        <v>427.6021490532311</v>
+        <v>515.8513908616673</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6228038740554</v>
+        <v>515.8513908616673</v>
       </c>
       <c r="W31" t="n">
-        <v>47.31297010154359</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="X31" t="n">
-        <v>47.31297010154359</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.31297010154359</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>466.1046008912463</v>
+        <v>617.323168617109</v>
       </c>
       <c r="C32" t="n">
-        <v>72.92909939417689</v>
+        <v>617.323168617109</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154359</v>
+        <v>617.323168617109</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154359</v>
+        <v>617.323168617109</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154359</v>
+        <v>617.323168617109</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I32" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.648505077179</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V32" t="n">
-        <v>2023.541695780698</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W32" t="n">
-        <v>1652.542660748985</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X32" t="n">
-        <v>1263.090055682042</v>
+        <v>617.323168617109</v>
       </c>
       <c r="Y32" t="n">
-        <v>866.5993466026432</v>
+        <v>617.323168617109</v>
       </c>
     </row>
     <row r="33">
@@ -6764,19 +6764,19 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171667</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G33" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
         <v>160.427952321271</v>
@@ -6788,7 +6788,7 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>1545.785408515687</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N33" t="n">
         <v>2131.283413522289</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>589.1399514439072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>589.1399514439072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>589.1399514439072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>589.1399514439072</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
         <v>479.5672294235493</v>
@@ -6885,25 +6885,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>824.8590032756731</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T34" t="n">
-        <v>589.1399514439072</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U34" t="n">
-        <v>589.1399514439072</v>
+        <v>336.6041277001235</v>
       </c>
       <c r="V34" t="n">
-        <v>589.1399514439072</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="W34" t="n">
-        <v>589.1399514439072</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="X34" t="n">
-        <v>589.1399514439072</v>
+        <v>70.62478252094769</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.1399514439072</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1665.394817750351</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="C35" t="n">
-        <v>1665.394817750351</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="D35" t="n">
-        <v>1279.953688967018</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E35" t="n">
-        <v>877.3701640835627</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F35" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I35" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
         <v>191.9627430103717</v>
@@ -6949,40 +6949,40 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N35" t="n">
-        <v>1590.266290800943</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O35" t="n">
-        <v>2030.305891693271</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T35" t="n">
-        <v>1937.641433863168</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U35" t="n">
-        <v>1681.888704297767</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V35" t="n">
-        <v>1665.394817750351</v>
+        <v>1563.28249744187</v>
       </c>
       <c r="W35" t="n">
-        <v>1665.394817750351</v>
+        <v>1192.283462410157</v>
       </c>
       <c r="X35" t="n">
-        <v>1665.394817750351</v>
+        <v>1192.283462410157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.394817750351</v>
+        <v>1173.731587788408</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H36" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
         <v>160.427952321271</v>
       </c>
       <c r="K36" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L36" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>1229.492043226186</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769801</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360782</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P36" t="n">
         <v>2365.648505077179</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.201482535627</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.201482535627</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.201482535627</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.201482535627</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645568</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519368</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857632</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888841</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.35014293055</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707128</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2365.648505077179</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>2365.648505077179</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U37" t="n">
-        <v>2365.648505077179</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V37" t="n">
-        <v>2365.648505077179</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W37" t="n">
-        <v>2082.318103008357</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="X37" t="n">
-        <v>1848.23778079134</v>
+        <v>429.7105387425078</v>
       </c>
       <c r="Y37" t="n">
-        <v>1625.125719607983</v>
+        <v>206.5984775591512</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>784.5587760470498</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="C38" t="n">
-        <v>784.5587760470498</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D38" t="n">
-        <v>784.5587760470498</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E38" t="n">
-        <v>784.5587760470498</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G38" t="n">
         <v>371.396020535053</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I38" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L38" t="n">
-        <v>550.9450990378335</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M38" t="n">
-        <v>1096.945999082414</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N38" t="n">
-        <v>1624.757282719876</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O38" t="n">
-        <v>1832.615452804709</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P38" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U38" t="n">
-        <v>2283.607934521586</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V38" t="n">
-        <v>1941.501125225104</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W38" t="n">
-        <v>1570.502090193392</v>
+        <v>1006.775773684052</v>
       </c>
       <c r="X38" t="n">
-        <v>1181.049485126449</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="Y38" t="n">
-        <v>784.5587760470498</v>
+        <v>756.8371493183852</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H39" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N39" t="n">
-        <v>1701.875066013061</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O39" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X39" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>371.045575040604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
         <v>479.5672294235493</v>
@@ -7359,25 +7359,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T40" t="n">
-        <v>841.6923854900044</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U40" t="n">
-        <v>556.2535937319053</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="V40" t="n">
-        <v>556.2535937319053</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="W40" t="n">
-        <v>556.2535937319053</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X40" t="n">
-        <v>556.2535937319053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>556.2535937319053</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.21044521944</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="C41" t="n">
-        <v>786.0349437223708</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="D41" t="n">
-        <v>786.0349437223708</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E41" t="n">
-        <v>383.4514188389153</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I41" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M41" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N41" t="n">
-        <v>1614.445445502115</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O41" t="n">
-        <v>2054.485046394444</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q41" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R41" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.648505077179</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.648505077179</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X41" t="n">
-        <v>1976.195900010236</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="Y41" t="n">
-        <v>1579.705190930837</v>
+        <v>788.2904590050753</v>
       </c>
     </row>
     <row r="42">
@@ -7475,40 +7475,40 @@
         <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171667</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
         <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154358</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.648505077179</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.7721419361088</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J43" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K43" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L43" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M43" t="n">
         <v>479.5672294235493</v>
@@ -7599,22 +7599,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V43" t="n">
-        <v>903.1828662219482</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8524641531258</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X43" t="n">
-        <v>385.7721419361088</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>385.7721419361088</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>756.8371493183852</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C44" t="n">
-        <v>756.8371493183852</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D44" t="n">
-        <v>371.396020535053</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E44" t="n">
-        <v>371.396020535053</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F44" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G44" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
         <v>406.2953261290054</v>
@@ -7660,40 +7660,40 @@
         <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>1445.616517892115</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O44" t="n">
-        <v>1885.656118784443</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2199.13495001823</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>1975.634347577647</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U44" t="n">
-        <v>1719.881618012245</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V44" t="n">
-        <v>1377.774808715764</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="W44" t="n">
-        <v>1006.775773684051</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="X44" t="n">
-        <v>756.8371493183852</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y44" t="n">
-        <v>756.8371493183852</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
-        <v>47.31297010154359</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>632.8109751081455</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N45" t="n">
-        <v>1218.308980114748</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805891</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
         <v>1367.096582257017</v>
@@ -7772,7 +7772,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
         <v>479.5672294235493</v>
@@ -7836,22 +7836,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U46" t="n">
-        <v>663.3212008849971</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V46" t="n">
-        <v>397.3418557058213</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W46" t="n">
-        <v>114.011453636999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7987,16 +7987,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>320.1156270018461</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>359.7712890658291</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8060,25 +8060,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>230.2980308590267</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>121.5663691156888</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>498.7523067719738</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>560.2818744604607</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>500.3175139373686</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,16 +8455,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>277.6349551468913</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,19 +8534,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>553.2668652653155</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600802</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8704,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>242.7955693701908</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>680.3186616794898</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234615</v>
+        <v>388.2984090135469</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8929,22 +8929,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>331.0195299270383</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>186.088840441687</v>
+        <v>237.313040054172</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
         <v>505.666843611017</v>
@@ -9178,7 +9178,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P17" t="n">
         <v>150.3014472409252</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O18" t="n">
-        <v>116.7148101947783</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9415,7 +9415,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
@@ -9479,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095472</v>
+        <v>230.2980308590258</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>417.2510275517567</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9652,13 +9652,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O23" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>422.8212561536977</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
         <v>505.666843611017</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600587</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>186.088840441687</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234615</v>
+        <v>500.3175139373686</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10114,7 +10114,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
         <v>651.5514946987026</v>
@@ -10126,10 +10126,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>399.6354845339695</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>150.3014472409252</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>186.088840441687</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10363,10 +10363,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>194.041828753471</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10436,10 +10436,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>680.3186616794898</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234615</v>
+        <v>673.3036524843443</v>
       </c>
       <c r="O33" t="n">
         <v>92.68755888888889</v>
@@ -10597,13 +10597,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P35" t="n">
-        <v>489.0313597499232</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10667,22 +10667,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>301.5486891608481</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10825,10 +10825,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10837,13 +10837,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>359.5215849845337</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P39" t="n">
-        <v>235.823926913393</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
@@ -11074,13 +11074,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P41" t="n">
-        <v>277.8952841518213</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046925</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>325.9393879617821</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11308,16 +11308,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P44" t="n">
-        <v>448.4295544649528</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
-        <v>605.1654020112564</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>320.3351938922088</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2451960294882</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>354.6430307828372</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>56.63048077364812</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>106.4523475852098</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>108.0479292785141</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>18.74961822369929</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -22998,7 +22998,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.8649922231487</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>247.4154075310275</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23238,13 +23238,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>56.04115481195228</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23260,19 +23260,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>335.3018142228219</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23308,25 +23308,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>52.6110324319348</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>9.495244038962085</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>104.8087781025131</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
@@ -23515,7 +23515,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.3184882898124</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.48239428282091</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>86.52831142257487</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23940,13 +23940,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>107.7142051367364</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>36.77630269881823</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>320.2889021412353</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>63.54275166994404</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24147,10 +24147,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
-        <v>16.09729481249326</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>95.76444978932716</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>308.4846337680058</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>135.7503298808102</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>79.48278366447408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>202.8992405406451</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24606,25 +24606,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>154.8494418714222</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.48239428282091</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>332.4787953276613</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24888,19 +24888,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>54.79281105617957</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>356.226749495792</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -24931,10 +24931,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>165.5632513556414</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24967,13 +24967,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25086,19 +25086,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6772113813387</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
@@ -25143,7 +25143,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>197.802246276313</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>322.3567935215743</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>374.1594461130725</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.04094380275501</v>
+        <v>181.4159615605136</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
@@ -25323,7 +25323,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25365,7 +25365,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25405,7 +25405,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>171.9750374197097</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>138.1188408942634</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25563,10 +25563,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -25599,13 +25599,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>127.3649302318875</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>56.04115481195228</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25614,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>79.94842983532402</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>206.87060206142</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
@@ -25800,7 +25800,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>218.1981965704476</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>299.646889703024</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>138.1188408942643</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -26076,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X46" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>666284.436280982</v>
+        <v>666284.4362809818</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>666284.4362809815</v>
+        <v>666284.4362809818</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666284.4362809815</v>
+        <v>666284.436280982</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666284.4362809818</v>
+        <v>666284.436280982</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666284.4362809819</v>
+        <v>666284.436280982</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666284.4362809812</v>
+        <v>666284.4362809822</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666284.4362809819</v>
+        <v>666284.4362809818</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666284.4362809818</v>
+        <v>666284.4362809822</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666284.4362809819</v>
+        <v>666284.436280982</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666284.4362809818</v>
+        <v>666284.436280982</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666284.4362809816</v>
+        <v>666284.4362809822</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666284.4362809822</v>
+        <v>666284.436280982</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124222.522018488</v>
+        <v>124222.5220184881</v>
       </c>
       <c r="C2" t="n">
         <v>124222.5220184881</v>
@@ -26331,10 +26331,10 @@
         <v>124222.5220184881</v>
       </c>
       <c r="H2" t="n">
-        <v>124222.522018488</v>
+        <v>124222.5220184881</v>
       </c>
       <c r="I2" t="n">
-        <v>124222.522018488</v>
+        <v>124222.5220184881</v>
       </c>
       <c r="J2" t="n">
         <v>124222.5220184881</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394316</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3207027394314</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3207027394316</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3207027394315</v>
+        <v>461.3207027394317</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="K5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="L5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="M5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="N5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="O5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144020.0619531694</v>
+        <v>-144694.0880793894</v>
       </c>
       <c r="C6" t="n">
-        <v>54175.74403857553</v>
+        <v>53501.71791235547</v>
       </c>
       <c r="D6" t="n">
-        <v>54175.74403857553</v>
+        <v>53501.7179123555</v>
       </c>
       <c r="E6" t="n">
-        <v>87803.34403857551</v>
+        <v>87129.31791235549</v>
       </c>
       <c r="F6" t="n">
-        <v>87803.34403857551</v>
+        <v>87129.31791235549</v>
       </c>
       <c r="G6" t="n">
-        <v>87803.34403857554</v>
+        <v>87129.31791235547</v>
       </c>
       <c r="H6" t="n">
-        <v>87803.34403857548</v>
+        <v>87129.31791235552</v>
       </c>
       <c r="I6" t="n">
-        <v>87803.34403857548</v>
+        <v>87129.31791235549</v>
       </c>
       <c r="J6" t="n">
-        <v>-66936.09032702782</v>
+        <v>-67610.11645324796</v>
       </c>
       <c r="K6" t="n">
-        <v>87803.34403857554</v>
+        <v>87129.31791235547</v>
       </c>
       <c r="L6" t="n">
-        <v>87803.34403857551</v>
+        <v>87129.3179123555</v>
       </c>
       <c r="M6" t="n">
-        <v>87803.34403857557</v>
+        <v>87129.31791235552</v>
       </c>
       <c r="N6" t="n">
-        <v>87803.34403857551</v>
+        <v>87129.31791235547</v>
       </c>
       <c r="O6" t="n">
-        <v>87803.34403857551</v>
+        <v>87129.31791235547</v>
       </c>
       <c r="P6" t="n">
-        <v>87803.34403857551</v>
+        <v>87129.31791235544</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="L4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="M4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34707,16 +34707,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>170.3905754041188</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>209.4698418249039</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34780,25 +34780,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>34.48300429637414</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>349.6338154341898</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>467.8947524111488</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.1362567284992</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>467.8947524111488</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35424,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.29687095179861</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>587.9315396301779</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692948</v>
+        <v>302.9262961593802</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>181.294478329311</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>93.70171839237511</v>
+        <v>144.9259180048601</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35898,7 +35898,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O18" t="n">
-        <v>24.02725130588939</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36135,7 +36135,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553806</v>
+        <v>144.9259180048591</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>274.1926243725193</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36372,13 +36372,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>330.4341341043858</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359623</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>93.70171839237511</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692948</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36846,10 +36846,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>250.0716471098731</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>93.70171839237511</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37083,10 +37083,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>44.47799132937455</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>587.9315396301779</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692948</v>
+        <v>587.9315396301777</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37317,13 +37317,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P35" t="n">
-        <v>338.729912508998</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>216.1765763066815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37557,13 +37557,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>209.9577475604372</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P39" t="n">
-        <v>148.7405620940783</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37794,13 +37794,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P41" t="n">
-        <v>127.5938369108961</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37867,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728932</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,16 +38028,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P44" t="n">
-        <v>298.1281072240276</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
-        <v>512.4778431223675</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
